--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masou\Documents\GitHub\Haynes-Shockley-experiment-M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B912BA-DC4D-466D-83DC-DFC557BB8A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE031E-A420-41DE-9443-3CF7516F92E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{E25EAB6A-984B-469F-8465-F9121B65348C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20.9v" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
